--- a/questions/aoa_excel.xlsx
+++ b/questions/aoa_excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/031fa08f5ca4ffcf/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farde\OneDrive\Desktop\QPG\Question-Paper-Generator\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{A8B72DE0-6B81-47B4-8233-ED5480098206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77F77458-F3A6-4F80-AB78-BDF2316D65C8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6A0EB3-D3B9-460B-969E-5AAF0ED4BEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF49C881-8EEE-498F-8C94-782963FB2985}"/>
   </bookViews>
@@ -571,13 +571,14 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="118.140625" customWidth="1"/>
     <col min="2" max="2" width="55.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/questions/aoa_excel.xlsx
+++ b/questions/aoa_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farde\OneDrive\Desktop\QPG\Question-Paper-Generator\questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/031fa08f5ca4ffcf/Desktop/QPG/Question-Paper-Generator/questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6A0EB3-D3B9-460B-969E-5AAF0ED4BEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{3F6A0EB3-D3B9-460B-969E-5AAF0ED4BEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B109077-C1D0-4A81-B795-978423FB27F2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF49C881-8EEE-498F-8C94-782963FB2985}"/>
+    <workbookView xWindow="3330" yWindow="660" windowWidth="21600" windowHeight="11295" xr2:uid="{FF49C881-8EEE-498F-8C94-782963FB2985}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>Questions</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>Single Source Shortest Path</t>
+  </si>
+  <si>
+    <t>Difficulty_level</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
 </sst>
 </file>
@@ -568,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636F2EE4-71B1-42DA-BE5A-495A20BC23A0}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,55 +593,73 @@
     <col min="3" max="3" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -637,39 +667,51 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -677,7 +719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -685,7 +727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -693,31 +735,40 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -725,68 +776,92 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
